--- a/Data/NPCC140/npcc.xlsx
+++ b/Data/NPCC140/npcc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EERL\NY-Simple-Net\NY-Simple-Net-main\NPCC140\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EERL\NY-Simple-Net\NY-Simple-Net-main\Data\NPCC140\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B260932-F4C8-4595-87DC-E162C268DB08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06030A3F-7881-4DFF-A30A-12E422C2A68B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5241,8 +5241,8 @@
   <dimension ref="A1:N141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T74" sqref="T74"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5323,10 +5323,10 @@
         <v>8.4533276991093351E-2</v>
       </c>
       <c r="J2">
+        <v>41.005000000000003</v>
+      </c>
+      <c r="K2">
         <v>-72.057000000000002</v>
-      </c>
-      <c r="K2">
-        <v>41.005000000000003</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -5367,10 +5367,10 @@
         <v>7.0801026436401973E-2</v>
       </c>
       <c r="J3">
+        <v>41.298000000000002</v>
+      </c>
+      <c r="K3">
         <v>-72.296999999999997</v>
-      </c>
-      <c r="K3">
-        <v>41.298000000000002</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -5411,10 +5411,10 @@
         <v>6.9933597798160788E-2</v>
       </c>
       <c r="J4">
+        <v>41.478000000000002</v>
+      </c>
+      <c r="K4">
         <v>-72.010000000000005</v>
-      </c>
-      <c r="K4">
-        <v>41.478000000000002</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -5455,10 +5455,10 @@
         <v>7.1567225978027491E-2</v>
       </c>
       <c r="J5">
+        <v>41.274999999999999</v>
+      </c>
+      <c r="K5">
         <v>-71.798000000000002</v>
-      </c>
-      <c r="K5">
-        <v>41.274999999999999</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -5499,10 +5499,10 @@
         <v>4.1062361311670591E-2</v>
       </c>
       <c r="J6">
+        <v>41.76</v>
+      </c>
+      <c r="K6">
         <v>-72.078000000000003</v>
-      </c>
-      <c r="K6">
-        <v>41.76</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -5543,10 +5543,10 @@
         <v>3.2468360074850523E-2</v>
       </c>
       <c r="J7">
+        <v>41.969000000000001</v>
+      </c>
+      <c r="K7">
         <v>-71.616</v>
-      </c>
-      <c r="K7">
-        <v>41.969000000000001</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -5587,10 +5587,10 @@
         <v>5.6991981394622838E-2</v>
       </c>
       <c r="J8">
+        <v>42.206000000000003</v>
+      </c>
+      <c r="K8">
         <v>-71.248999999999995</v>
-      </c>
-      <c r="K8">
-        <v>42.206000000000003</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -5631,10 +5631,10 @@
         <v>3.4862951808586742E-2</v>
       </c>
       <c r="J9">
+        <v>42.189</v>
+      </c>
+      <c r="K9">
         <v>-71.671999999999997</v>
-      </c>
-      <c r="K9">
-        <v>42.189</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -5675,10 +5675,10 @@
         <v>1.8722146886143171E-2</v>
       </c>
       <c r="J10">
+        <v>42.088000000000001</v>
+      </c>
+      <c r="K10">
         <v>-72.039000000000001</v>
-      </c>
-      <c r="K10">
-        <v>42.088000000000001</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -5719,10 +5719,10 @@
         <v>0.13993351810789739</v>
       </c>
       <c r="J11">
+        <v>41.648000000000003</v>
+      </c>
+      <c r="K11">
         <v>-71.088999999999999</v>
-      </c>
-      <c r="K11">
-        <v>41.648000000000003</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -5763,10 +5763,10 @@
         <v>0.1170679595775196</v>
       </c>
       <c r="J12">
+        <v>41.506999999999998</v>
+      </c>
+      <c r="K12">
         <v>-71.454999999999998</v>
-      </c>
-      <c r="K12">
-        <v>41.506999999999998</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -5807,10 +5807,10 @@
         <v>0.10372666277527499</v>
       </c>
       <c r="J13">
+        <v>41.975000000000001</v>
+      </c>
+      <c r="K13">
         <v>-71.129000000000005</v>
-      </c>
-      <c r="K13">
-        <v>41.975000000000001</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -5851,10 +5851,10 @@
         <v>0.18629120837011881</v>
       </c>
       <c r="J14">
+        <v>41.71</v>
+      </c>
+      <c r="K14">
         <v>-70.489999999999995</v>
-      </c>
-      <c r="K14">
-        <v>41.71</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -5895,10 +5895,10 @@
         <v>0.181280368087643</v>
       </c>
       <c r="J15">
+        <v>41.720999999999997</v>
+      </c>
+      <c r="K15">
         <v>-70.162999999999997</v>
-      </c>
-      <c r="K15">
-        <v>41.720999999999997</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -5939,10 +5939,10 @@
         <v>6.0030599622344957E-2</v>
       </c>
       <c r="J16">
+        <v>42.228999999999999</v>
+      </c>
+      <c r="K16">
         <v>-70.722999999999999</v>
-      </c>
-      <c r="K16">
-        <v>42.228999999999999</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -5983,10 +5983,10 @@
         <v>7.8038906844422468E-2</v>
       </c>
       <c r="J17">
+        <v>42.81</v>
+      </c>
+      <c r="K17">
         <v>-72.478999999999999</v>
-      </c>
-      <c r="K17">
-        <v>42.81</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -6027,10 +6027,10 @@
         <v>5.7175240966082237E-2</v>
       </c>
       <c r="J18">
+        <v>42.826000000000001</v>
+      </c>
+      <c r="K18">
         <v>-71.441999999999993</v>
-      </c>
-      <c r="K18">
-        <v>42.826000000000001</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -6071,10 +6071,10 @@
         <v>2.6293385181294569E-2</v>
       </c>
       <c r="J19">
+        <v>42.527999999999999</v>
+      </c>
+      <c r="K19">
         <v>-71.298000000000002</v>
-      </c>
-      <c r="K19">
-        <v>42.527999999999999</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -6115,10 +6115,10 @@
         <v>0.11290360398226119</v>
       </c>
       <c r="J20">
+        <v>43.113999999999997</v>
+      </c>
+      <c r="K20">
         <v>-70.588999999999999</v>
-      </c>
-      <c r="K20">
-        <v>43.113999999999997</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -6159,10 +6159,10 @@
         <v>0.15965748398468529</v>
       </c>
       <c r="J21">
+        <v>43.863999999999997</v>
+      </c>
+      <c r="K21">
         <v>-69.832999999999998</v>
-      </c>
-      <c r="K21">
-        <v>43.863999999999997</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -6203,10 +6203,10 @@
         <v>0.2069646333599916</v>
       </c>
       <c r="J22">
+        <v>41.005000000000003</v>
+      </c>
+      <c r="K22">
         <v>-72.403999999999996</v>
-      </c>
-      <c r="K22">
-        <v>41.005000000000003</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -6247,10 +6247,10 @@
         <v>0.22089236079090641</v>
       </c>
       <c r="J23">
+        <v>41.411000000000001</v>
+      </c>
+      <c r="K23">
         <v>-70.881</v>
-      </c>
-      <c r="K23">
-        <v>41.411000000000001</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -6291,10 +6291,10 @@
         <v>0.2051215656698856</v>
       </c>
       <c r="J24">
+        <v>41.348999999999997</v>
+      </c>
+      <c r="K24">
         <v>-71.343000000000004</v>
-      </c>
-      <c r="K24">
-        <v>41.348999999999997</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -6335,10 +6335,10 @@
         <v>0.27535710542864139</v>
       </c>
       <c r="J25">
+        <v>41.466999999999999</v>
+      </c>
+      <c r="K25">
         <v>-70.537999999999997</v>
-      </c>
-      <c r="K25">
-        <v>41.466999999999999</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -6379,10 +6379,10 @@
         <v>0.31946855694354609</v>
       </c>
       <c r="J26">
+        <v>41.399000000000001</v>
+      </c>
+      <c r="K26">
         <v>-70.186999999999998</v>
-      </c>
-      <c r="K26">
-        <v>41.399000000000001</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -6423,10 +6423,10 @@
         <v>0.27425056668287701</v>
       </c>
       <c r="J27">
+        <v>43.893000000000001</v>
+      </c>
+      <c r="K27">
         <v>-69.506</v>
-      </c>
-      <c r="K27">
-        <v>43.893000000000001</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -6467,10 +6467,10 @@
         <v>0.19319049490325241</v>
       </c>
       <c r="J28">
+        <v>43.000999999999998</v>
+      </c>
+      <c r="K28">
         <v>-72.91</v>
-      </c>
-      <c r="K28">
-        <v>43.000999999999998</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -6511,10 +6511,10 @@
         <v>5.6258943108785223E-2</v>
       </c>
       <c r="J29">
+        <v>42.465000000000003</v>
+      </c>
+      <c r="K29">
         <v>-72.198999999999998</v>
-      </c>
-      <c r="K29">
-        <v>42.465000000000003</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -6555,10 +6555,10 @@
         <v>5.6258943108785223E-2</v>
       </c>
       <c r="J30">
+        <v>42.481999999999999</v>
+      </c>
+      <c r="K30">
         <v>-72.725999999999999</v>
-      </c>
-      <c r="K30">
-        <v>42.481999999999999</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -6599,10 +6599,10 @@
         <v>1.258207857762712E-2</v>
       </c>
       <c r="J31">
+        <v>42.177999999999997</v>
+      </c>
+      <c r="K31">
         <v>-72.581999999999994</v>
-      </c>
-      <c r="K31">
-        <v>42.177999999999997</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -6643,10 +6643,10 @@
         <v>6.9219758134095111E-3</v>
       </c>
       <c r="J32">
+        <v>41.838999999999999</v>
+      </c>
+      <c r="K32">
         <v>-72.581000000000003</v>
-      </c>
-      <c r="K32">
-        <v>41.838999999999999</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -6687,10 +6687,10 @@
         <v>3.2201324699295382E-2</v>
       </c>
       <c r="J33">
+        <v>41.619</v>
+      </c>
+      <c r="K33">
         <v>-72.772000000000006</v>
-      </c>
-      <c r="K33">
-        <v>41.619</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -6731,10 +6731,10 @@
         <v>4.4395940182979758E-2</v>
       </c>
       <c r="J34">
+        <v>41.371000000000002</v>
+      </c>
+      <c r="K34">
         <v>-72.555999999999997</v>
-      </c>
-      <c r="K34">
-        <v>41.371000000000002</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -6775,10 +6775,10 @@
         <v>8.7022116504437263E-3</v>
       </c>
       <c r="J35">
+        <v>41.304000000000002</v>
+      </c>
+      <c r="K35">
         <v>-72.986999999999995</v>
-      </c>
-      <c r="K35">
-        <v>41.304000000000002</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -6819,10 +6819,10 @@
         <v>1.296779634231787E-3</v>
       </c>
       <c r="J36">
+        <v>41.563000000000002</v>
+      </c>
+      <c r="K36">
         <v>-73.186999999999998</v>
-      </c>
-      <c r="K36">
-        <v>41.563000000000002</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -6863,10 +6863,10 @@
         <v>0.17388715337619501</v>
       </c>
       <c r="J37">
+        <v>41.173999999999999</v>
+      </c>
+      <c r="K37">
         <v>-72.643000000000001</v>
-      </c>
-      <c r="K37">
-        <v>41.173999999999999</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -6907,10 +6907,10 @@
         <v>8.0393356005362807E-2</v>
       </c>
       <c r="J38">
+        <v>42.494</v>
+      </c>
+      <c r="K38">
         <v>-73.923000000000002</v>
-      </c>
-      <c r="K38">
-        <v>42.494</v>
       </c>
       <c r="L38">
         <v>2</v>
@@ -6951,10 +6951,10 @@
         <v>0.1217402059851085</v>
       </c>
       <c r="J39">
+        <v>42.335999999999999</v>
+      </c>
+      <c r="K39">
         <v>-74.88</v>
-      </c>
-      <c r="K39">
-        <v>42.335999999999999</v>
       </c>
       <c r="L39">
         <v>2</v>
@@ -6995,10 +6995,10 @@
         <v>5.7140334381042351E-2</v>
       </c>
       <c r="J40">
+        <v>42.042000000000002</v>
+      </c>
+      <c r="K40">
         <v>-74.001000000000005</v>
-      </c>
-      <c r="K40">
-        <v>42.042000000000002</v>
       </c>
       <c r="L40">
         <v>2</v>
@@ -7039,10 +7039,10 @@
         <v>1.0056587149991331E-2</v>
       </c>
       <c r="J41">
+        <v>42.646000000000001</v>
+      </c>
+      <c r="K41">
         <v>-74.066000000000003</v>
-      </c>
-      <c r="K41">
-        <v>42.646000000000001</v>
       </c>
       <c r="L41">
         <v>2</v>
@@ -7083,10 +7083,10 @@
         <v>-5.8833303755476851E-2</v>
       </c>
       <c r="J42">
+        <v>43.085999999999999</v>
+      </c>
+      <c r="K42">
         <v>-73.78</v>
-      </c>
-      <c r="K42">
-        <v>43.085999999999999</v>
       </c>
       <c r="L42">
         <v>2</v>
@@ -7127,10 +7127,10 @@
         <v>-4.4793875252434473E-2</v>
       </c>
       <c r="J43">
+        <v>42.701999999999998</v>
+      </c>
+      <c r="K43">
         <v>-73.628</v>
-      </c>
-      <c r="K43">
-        <v>42.701999999999998</v>
       </c>
       <c r="L43">
         <v>2</v>
@@ -7171,10 +7171,10 @@
         <v>0.14561281949388691</v>
       </c>
       <c r="J44">
+        <v>42.893999999999998</v>
+      </c>
+      <c r="K44">
         <v>-75.239999999999995</v>
-      </c>
-      <c r="K44">
-        <v>42.893999999999998</v>
       </c>
       <c r="L44">
         <v>2</v>
@@ -7215,10 +7215,10 @@
         <v>0.1146611505390195</v>
       </c>
       <c r="J45">
+        <v>43.012999999999998</v>
+      </c>
+      <c r="K45">
         <v>-75.135999999999996</v>
-      </c>
-      <c r="K45">
-        <v>43.012999999999998</v>
       </c>
       <c r="L45">
         <v>2</v>
@@ -7259,10 +7259,10 @@
         <v>6.889163623472018E-2</v>
       </c>
       <c r="J46">
+        <v>43.131</v>
+      </c>
+      <c r="K46">
         <v>-75.239999999999995</v>
-      </c>
-      <c r="K46">
-        <v>43.131</v>
       </c>
       <c r="L46">
         <v>2</v>
@@ -7303,10 +7303,10 @@
         <v>0.1079486142358493</v>
       </c>
       <c r="J47">
+        <v>44.427999999999997</v>
+      </c>
+      <c r="K47">
         <v>-75.051000000000002</v>
-      </c>
-      <c r="K47">
-        <v>44.427999999999997</v>
       </c>
       <c r="L47">
         <v>2</v>
@@ -7347,10 +7347,10 @@
         <v>0.20384223932817369</v>
       </c>
       <c r="J48">
+        <v>44.654000000000003</v>
+      </c>
+      <c r="K48">
         <v>-75.210999999999999</v>
-      </c>
-      <c r="K48">
-        <v>44.654000000000003</v>
       </c>
       <c r="L48">
         <v>2</v>
@@ -7391,10 +7391,10 @@
         <v>0.26202104461415271</v>
       </c>
       <c r="J49">
+        <v>44.845999999999997</v>
+      </c>
+      <c r="K49">
         <v>-74.820999999999998</v>
-      </c>
-      <c r="K49">
-        <v>44.845999999999997</v>
       </c>
       <c r="L49">
         <v>2</v>
@@ -7435,10 +7435,10 @@
         <v>-1.948136511076071E-2</v>
       </c>
       <c r="J50">
+        <v>44.698999999999998</v>
+      </c>
+      <c r="K50">
         <v>-74.134</v>
-      </c>
-      <c r="K50">
-        <v>44.698999999999998</v>
       </c>
       <c r="L50">
         <v>2</v>
@@ -7479,10 +7479,10 @@
         <v>0.23063478867553869</v>
       </c>
       <c r="J51">
+        <v>43.305999999999997</v>
+      </c>
+      <c r="K51">
         <v>-76.332999999999998</v>
-      </c>
-      <c r="K51">
-        <v>43.305999999999997</v>
       </c>
       <c r="L51">
         <v>2</v>
@@ -7523,10 +7523,10 @@
         <v>0.14884691459783239</v>
       </c>
       <c r="J52">
+        <v>42.939</v>
+      </c>
+      <c r="K52">
         <v>-76.260999999999996</v>
-      </c>
-      <c r="K52">
-        <v>42.939</v>
       </c>
       <c r="L52">
         <v>2</v>
@@ -7567,10 +7567,10 @@
         <v>0.33882076768965919</v>
       </c>
       <c r="J53">
+        <v>43.311999999999998</v>
+      </c>
+      <c r="K53">
         <v>-77.481999999999999</v>
-      </c>
-      <c r="K53">
-        <v>43.311999999999998</v>
       </c>
       <c r="L53">
         <v>2</v>
@@ -7611,10 +7611,10 @@
         <v>0.314251767809335</v>
       </c>
       <c r="J54">
+        <v>42.889000000000003</v>
+      </c>
+      <c r="K54">
         <v>-77.777000000000001</v>
-      </c>
-      <c r="K54">
-        <v>42.889000000000003</v>
       </c>
       <c r="L54">
         <v>2</v>
@@ -7655,10 +7655,10 @@
         <v>0.47005381947636482</v>
       </c>
       <c r="J55">
+        <v>43.125</v>
+      </c>
+      <c r="K55">
         <v>-78.352000000000004</v>
-      </c>
-      <c r="K55">
-        <v>43.125</v>
       </c>
       <c r="L55">
         <v>2</v>
@@ -7699,10 +7699,10 @@
         <v>0.45744207030145378</v>
       </c>
       <c r="J56">
+        <v>42.996000000000002</v>
+      </c>
+      <c r="K56">
         <v>-78.590999999999994</v>
-      </c>
-      <c r="K56">
-        <v>42.996000000000002</v>
       </c>
       <c r="L56">
         <v>2</v>
@@ -7743,10 +7743,10 @@
         <v>0.46948484214021469</v>
       </c>
       <c r="J57">
+        <v>43.311999999999998</v>
+      </c>
+      <c r="K57">
         <v>-78.742999999999995</v>
-      </c>
-      <c r="K57">
-        <v>43.311999999999998</v>
       </c>
       <c r="L57">
         <v>2</v>
@@ -7787,10 +7787,10 @@
         <v>0.44895627947825728</v>
       </c>
       <c r="J58">
+        <v>42.911000000000001</v>
+      </c>
+      <c r="K58">
         <v>-79.125</v>
-      </c>
-      <c r="K58">
-        <v>42.911000000000001</v>
       </c>
       <c r="L58">
         <v>2</v>
@@ -7831,10 +7831,10 @@
         <v>0.42914679246812182</v>
       </c>
       <c r="J59">
+        <v>42.713999999999999</v>
+      </c>
+      <c r="K59">
         <v>-79.132999999999996</v>
-      </c>
-      <c r="K59">
-        <v>42.713999999999999</v>
       </c>
       <c r="L59">
         <v>2</v>
@@ -7875,10 +7875,10 @@
         <v>0.38721351185970598</v>
       </c>
       <c r="J60">
+        <v>42.561</v>
+      </c>
+      <c r="K60">
         <v>-78.796999999999997</v>
-      </c>
-      <c r="K60">
-        <v>42.561</v>
       </c>
       <c r="L60">
         <v>2</v>
@@ -7919,10 +7919,10 @@
         <v>0.52740533869689854</v>
       </c>
       <c r="J61">
+        <v>42.33</v>
+      </c>
+      <c r="K61">
         <v>-79.314999999999998</v>
-      </c>
-      <c r="K61">
-        <v>42.33</v>
       </c>
       <c r="L61">
         <v>2</v>
@@ -7963,10 +7963,10 @@
         <v>0.46647414918052449</v>
       </c>
       <c r="J62">
+        <v>42.234000000000002</v>
+      </c>
+      <c r="K62">
         <v>-78.828000000000003</v>
-      </c>
-      <c r="K62">
-        <v>42.234000000000002</v>
       </c>
       <c r="L62">
         <v>2</v>
@@ -8007,10 +8007,10 @@
         <v>0.41823848464315722</v>
       </c>
       <c r="J63">
+        <v>42.707999999999998</v>
+      </c>
+      <c r="K63">
         <v>-78.254999999999995</v>
-      </c>
-      <c r="K63">
-        <v>42.707999999999998</v>
       </c>
       <c r="L63">
         <v>2</v>
@@ -8051,10 +8051,10 @@
         <v>0.30799301711168342</v>
       </c>
       <c r="J64">
+        <v>42.42</v>
+      </c>
+      <c r="K64">
         <v>-77.823999999999998</v>
-      </c>
-      <c r="K64">
-        <v>42.42</v>
       </c>
       <c r="L64">
         <v>2</v>
@@ -8095,10 +8095,10 @@
         <v>0.25390351826312713</v>
       </c>
       <c r="J65">
+        <v>42.408999999999999</v>
+      </c>
+      <c r="K65">
         <v>-77.591999999999999</v>
-      </c>
-      <c r="K65">
-        <v>42.408999999999999</v>
       </c>
       <c r="L65">
         <v>2</v>
@@ -8139,10 +8139,10 @@
         <v>0.27499058628572259</v>
       </c>
       <c r="J66">
+        <v>42.628999999999998</v>
+      </c>
+      <c r="K66">
         <v>-76.977999999999994</v>
-      </c>
-      <c r="K66">
-        <v>42.628999999999998</v>
       </c>
       <c r="L66">
         <v>2</v>
@@ -8183,10 +8183,10 @@
         <v>0.36431304674428838</v>
       </c>
       <c r="J67">
+        <v>41.862000000000002</v>
+      </c>
+      <c r="K67">
         <v>-76.203000000000003</v>
-      </c>
-      <c r="K67">
-        <v>41.862000000000002</v>
       </c>
       <c r="L67">
         <v>2</v>
@@ -8227,10 +8227,10 @@
         <v>0.29114360851293009</v>
       </c>
       <c r="J68">
+        <v>41.951999999999998</v>
+      </c>
+      <c r="K68">
         <v>-77.040999999999997</v>
-      </c>
-      <c r="K68">
-        <v>41.951999999999998</v>
       </c>
       <c r="L68">
         <v>2</v>
@@ -8271,10 +8271,10 @@
         <v>0.2224107972401414</v>
       </c>
       <c r="J69">
+        <v>42.15</v>
+      </c>
+      <c r="K69">
         <v>-76.713999999999999</v>
-      </c>
-      <c r="K69">
-        <v>42.15</v>
       </c>
       <c r="L69">
         <v>2</v>
@@ -8315,10 +8315,10 @@
         <v>0.25020342024889908</v>
       </c>
       <c r="J70">
+        <v>42.009</v>
+      </c>
+      <c r="K70">
         <v>-75.397000000000006</v>
-      </c>
-      <c r="K70">
-        <v>42.009</v>
       </c>
       <c r="L70">
         <v>2</v>
@@ -8359,10 +8359,10 @@
         <v>0.2367748569840547</v>
       </c>
       <c r="J71">
+        <v>42.014000000000003</v>
+      </c>
+      <c r="K71">
         <v>-75.988</v>
-      </c>
-      <c r="K71">
-        <v>42.014000000000003</v>
       </c>
       <c r="L71">
         <v>2</v>
@@ -8403,10 +8403,10 @@
         <v>0.1939793837251538</v>
       </c>
       <c r="J72">
+        <v>42.33</v>
+      </c>
+      <c r="K72">
         <v>-75.789000000000001</v>
-      </c>
-      <c r="K72">
-        <v>42.33</v>
       </c>
       <c r="L72">
         <v>2</v>
@@ -8447,10 +8447,10 @@
         <v>0.17659764970454231</v>
       </c>
       <c r="J73">
+        <v>42.634999999999998</v>
+      </c>
+      <c r="K73">
         <v>-76.093000000000004</v>
-      </c>
-      <c r="K73">
-        <v>42.634999999999998</v>
       </c>
       <c r="L73">
         <v>2</v>
@@ -8491,10 +8491,10 @@
         <v>2.8581511830659139E-2</v>
       </c>
       <c r="J74">
+        <v>41.58</v>
+      </c>
+      <c r="K74">
         <v>-73.641000000000005</v>
-      </c>
-      <c r="K74">
-        <v>41.58</v>
       </c>
       <c r="L74">
         <v>3</v>
@@ -8535,10 +8535,10 @@
         <v>5.1993358416911077E-3</v>
       </c>
       <c r="J75">
+        <v>41.304000000000002</v>
+      </c>
+      <c r="K75">
         <v>-73.769000000000005</v>
-      </c>
-      <c r="K75">
-        <v>41.304000000000002</v>
       </c>
       <c r="L75">
         <v>3</v>
@@ -8579,10 +8579,10 @@
         <v>2.2045253781940371E-2</v>
       </c>
       <c r="J76">
+        <v>41.078000000000003</v>
+      </c>
+      <c r="K76">
         <v>-74.861000000000004</v>
-      </c>
-      <c r="K76">
-        <v>41.078000000000003</v>
       </c>
       <c r="L76">
         <v>3</v>
@@ -8623,10 +8623,10 @@
         <v>1.391725545540278E-2</v>
       </c>
       <c r="J77">
+        <v>41.173999999999999</v>
+      </c>
+      <c r="K77">
         <v>-74.311000000000007</v>
-      </c>
-      <c r="K77">
-        <v>41.173999999999999</v>
       </c>
       <c r="L77">
         <v>3</v>
@@ -8667,10 +8667,10 @@
         <v>9.5260070573850494E-3</v>
       </c>
       <c r="J78">
+        <v>41.36</v>
+      </c>
+      <c r="K78">
         <v>-74.12</v>
-      </c>
-      <c r="K78">
-        <v>41.36</v>
       </c>
       <c r="L78">
         <v>3</v>
@@ -8711,10 +8711,10 @@
         <v>0</v>
       </c>
       <c r="J79">
+        <v>40.773000000000003</v>
+      </c>
+      <c r="K79">
         <v>-73.424000000000007</v>
-      </c>
-      <c r="K79">
-        <v>40.773000000000003</v>
       </c>
       <c r="L79">
         <v>3</v>
@@ -8755,10 +8755,10 @@
         <v>0.14261957982671661</v>
       </c>
       <c r="J80">
+        <v>40.378999999999998</v>
+      </c>
+      <c r="K80">
         <v>-73.263999999999996</v>
-      </c>
-      <c r="K80">
-        <v>40.378999999999998</v>
       </c>
       <c r="L80">
         <v>3</v>
@@ -8799,10 +8799,10 @@
         <v>1.1011282250832231E-2</v>
       </c>
       <c r="J81">
+        <v>40.851999999999997</v>
+      </c>
+      <c r="K81">
         <v>-73.144999999999996</v>
-      </c>
-      <c r="K81">
-        <v>40.851999999999997</v>
       </c>
       <c r="L81">
         <v>3</v>
@@ -8843,10 +8843,10 @@
         <v>-5.7327084611005753E-2</v>
       </c>
       <c r="J82">
+        <v>40.491</v>
+      </c>
+      <c r="K82">
         <v>-73.775000000000006</v>
-      </c>
-      <c r="K82">
-        <v>40.491</v>
       </c>
       <c r="L82">
         <v>3</v>
@@ -8887,10 +8887,10 @@
         <v>0.13208651779093089</v>
       </c>
       <c r="J83">
+        <v>40.744999999999997</v>
+      </c>
+      <c r="K83">
         <v>-73.783000000000001</v>
-      </c>
-      <c r="K83">
-        <v>40.744999999999997</v>
       </c>
       <c r="L83">
         <v>3</v>
@@ -8931,10 +8931,10 @@
         <v>0.40114996593688068</v>
       </c>
       <c r="J84">
+        <v>42.11</v>
+      </c>
+      <c r="K84">
         <v>-82.905000000000001</v>
-      </c>
-      <c r="K84">
-        <v>42.11</v>
       </c>
       <c r="L84">
         <v>4</v>
@@ -8975,10 +8975,10 @@
         <v>0.40993246273291623</v>
       </c>
       <c r="J85">
+        <v>41.975000000000001</v>
+      </c>
+      <c r="K85">
         <v>-83.24</v>
-      </c>
-      <c r="K85">
-        <v>41.975000000000001</v>
       </c>
       <c r="L85">
         <v>4</v>
@@ -9019,10 +9019,10 @@
         <v>0.63614807774240523</v>
       </c>
       <c r="J86">
+        <v>42.543999999999997</v>
+      </c>
+      <c r="K86">
         <v>-82.442999999999998</v>
-      </c>
-      <c r="K86">
-        <v>42.543999999999997</v>
       </c>
       <c r="L86">
         <v>4</v>
@@ -9063,10 +9063,10 @@
         <v>0.72828051829668194</v>
       </c>
       <c r="J87">
+        <v>42.81</v>
+      </c>
+      <c r="K87">
         <v>-82.475999999999999</v>
-      </c>
-      <c r="K87">
-        <v>42.81</v>
       </c>
       <c r="L87">
         <v>4</v>
@@ -9107,10 +9107,10 @@
         <v>0.58733819988113178</v>
       </c>
       <c r="J88">
+        <v>42.436999999999998</v>
+      </c>
+      <c r="K88">
         <v>-82.61</v>
-      </c>
-      <c r="K88">
-        <v>42.436999999999998</v>
       </c>
       <c r="L88">
         <v>4</v>
@@ -9151,10 +9151,10 @@
         <v>0.57345061502301287</v>
       </c>
       <c r="J89">
+        <v>42.81</v>
+      </c>
+      <c r="K89">
         <v>-81.917000000000002</v>
-      </c>
-      <c r="K89">
-        <v>42.81</v>
       </c>
       <c r="L89">
         <v>4</v>
@@ -9195,10 +9195,10 @@
         <v>0.52798653333781265</v>
       </c>
       <c r="J90">
+        <v>42.911000000000001</v>
+      </c>
+      <c r="K90">
         <v>-82.204999999999998</v>
-      </c>
-      <c r="K90">
-        <v>42.911000000000001</v>
       </c>
       <c r="L90">
         <v>4</v>
@@ -9239,10 +9239,10 @@
         <v>0.52537901143533305</v>
       </c>
       <c r="J91">
+        <v>43.255000000000003</v>
+      </c>
+      <c r="K91">
         <v>-82.468000000000004</v>
-      </c>
-      <c r="K91">
-        <v>43.255000000000003</v>
       </c>
       <c r="L91">
         <v>4</v>
@@ -9283,10 +9283,10 @@
         <v>0.19571075034313221</v>
       </c>
       <c r="J92">
+        <v>43.875999999999998</v>
+      </c>
+      <c r="K92">
         <v>-79.406000000000006</v>
-      </c>
-      <c r="K92">
-        <v>43.875999999999998</v>
       </c>
       <c r="L92">
         <v>4</v>
@@ -9327,10 +9327,10 @@
         <v>0.32606066552832857</v>
       </c>
       <c r="J93">
+        <v>46.481999999999999</v>
+      </c>
+      <c r="K93">
         <v>-81.094999999999999</v>
-      </c>
-      <c r="K93">
-        <v>46.481999999999999</v>
       </c>
       <c r="L93">
         <v>4</v>
@@ -9371,10 +9371,10 @@
         <v>0.13169207337998021</v>
       </c>
       <c r="J94">
+        <v>44.732999999999997</v>
+      </c>
+      <c r="K94">
         <v>-79.638999999999996</v>
-      </c>
-      <c r="K94">
-        <v>44.732999999999997</v>
       </c>
       <c r="L94">
         <v>4</v>
@@ -9415,10 +9415,10 @@
         <v>0.1357726531711429</v>
       </c>
       <c r="J95">
+        <v>44</v>
+      </c>
+      <c r="K95">
         <v>-80.100999999999999</v>
-      </c>
-      <c r="K95">
-        <v>44</v>
       </c>
       <c r="L95">
         <v>4</v>
@@ -9459,10 +9459,10 @@
         <v>0.25540799207834619</v>
       </c>
       <c r="J96">
+        <v>46.087000000000003</v>
+      </c>
+      <c r="K96">
         <v>-78.102000000000004</v>
-      </c>
-      <c r="K96">
-        <v>46.087000000000003</v>
       </c>
       <c r="L96">
         <v>4</v>
@@ -9503,10 +9503,10 @@
         <v>0.26530051827864998</v>
       </c>
       <c r="J97">
+        <v>46.194000000000003</v>
+      </c>
+      <c r="K97">
         <v>-79.522999999999996</v>
-      </c>
-      <c r="K97">
-        <v>46.194000000000003</v>
       </c>
       <c r="L97">
         <v>4</v>
@@ -9547,10 +9547,10 @@
         <v>0.2451873439786674</v>
       </c>
       <c r="J98">
+        <v>46.198999999999998</v>
+      </c>
+      <c r="K98">
         <v>-81.349000000000004</v>
-      </c>
-      <c r="K98">
-        <v>46.198999999999998</v>
       </c>
       <c r="L98">
         <v>4</v>
@@ -9591,10 +9591,10 @@
         <v>0.55801841377687911</v>
       </c>
       <c r="J99">
+        <v>44.637</v>
+      </c>
+      <c r="K99">
         <v>-75.953000000000003</v>
-      </c>
-      <c r="K99">
-        <v>44.637</v>
       </c>
       <c r="L99">
         <v>4</v>
@@ -9635,10 +9635,10 @@
         <v>0.54668773627293188</v>
       </c>
       <c r="J100">
+        <v>44.975999999999999</v>
+      </c>
+      <c r="K100">
         <v>-75.372</v>
-      </c>
-      <c r="K100">
-        <v>44.975999999999999</v>
       </c>
       <c r="L100">
         <v>4</v>
@@ -9679,10 +9679,10 @@
         <v>0.45933749786911959</v>
       </c>
       <c r="J101">
+        <v>45.066000000000003</v>
+      </c>
+      <c r="K101">
         <v>-74.852999999999994</v>
-      </c>
-      <c r="K101">
-        <v>45.066000000000003</v>
       </c>
       <c r="L101">
         <v>4</v>
@@ -9723,10 +9723,10 @@
         <v>0.42495974759258742</v>
       </c>
       <c r="J102">
+        <v>42.917000000000002</v>
+      </c>
+      <c r="K102">
         <v>-79.843000000000004</v>
-      </c>
-      <c r="K102">
-        <v>42.917000000000002</v>
       </c>
       <c r="L102">
         <v>4</v>
@@ -9767,10 +9767,10 @@
         <v>0.44548831025454461</v>
       </c>
       <c r="J103">
+        <v>43.265999999999998</v>
+      </c>
+      <c r="K103">
         <v>-79.349000000000004</v>
-      </c>
-      <c r="K103">
-        <v>43.265999999999998</v>
       </c>
       <c r="L103">
         <v>4</v>
@@ -9811,10 +9811,10 @@
         <v>0.44185104409338838</v>
       </c>
       <c r="J104">
+        <v>43.069000000000003</v>
+      </c>
+      <c r="K104">
         <v>-79.316999999999993</v>
-      </c>
-      <c r="K104">
-        <v>43.069000000000003</v>
       </c>
       <c r="L104">
         <v>4</v>
@@ -9855,10 +9855,10 @@
         <v>0.22992967565773301</v>
       </c>
       <c r="J105">
+        <v>43.148000000000003</v>
+      </c>
+      <c r="K105">
         <v>-80.019000000000005</v>
-      </c>
-      <c r="K105">
-        <v>43.148000000000003</v>
       </c>
       <c r="L105">
         <v>4</v>
@@ -9899,10 +9899,10 @@
         <v>0.4210170488123321</v>
       </c>
       <c r="J106">
+        <v>42.731000000000002</v>
+      </c>
+      <c r="K106">
         <v>-81.486000000000004</v>
-      </c>
-      <c r="K106">
-        <v>42.731000000000002</v>
       </c>
       <c r="L106">
         <v>4</v>
@@ -9943,10 +9943,10 @@
         <v>0.25457197936664089</v>
       </c>
       <c r="J107">
+        <v>43.137</v>
+      </c>
+      <c r="K107">
         <v>-80.921000000000006</v>
-      </c>
-      <c r="K107">
-        <v>43.137</v>
       </c>
       <c r="L107">
         <v>4</v>
@@ -9987,10 +9987,10 @@
         <v>0.27808680037876049</v>
       </c>
       <c r="J108">
+        <v>42.99</v>
+      </c>
+      <c r="K108">
         <v>-80.793000000000006</v>
-      </c>
-      <c r="K108">
-        <v>42.99</v>
       </c>
       <c r="L108">
         <v>4</v>
@@ -10031,10 +10031,10 @@
         <v>0.24287129206127089</v>
       </c>
       <c r="J109">
+        <v>43.706000000000003</v>
+      </c>
+      <c r="K109">
         <v>-79.781000000000006</v>
-      </c>
-      <c r="K109">
-        <v>43.706000000000003</v>
       </c>
       <c r="L109">
         <v>4</v>
@@ -10075,10 +10075,10 @@
         <v>0.24244368639453229</v>
       </c>
       <c r="J110">
+        <v>43.34</v>
+      </c>
+      <c r="K110">
         <v>-79.94</v>
-      </c>
-      <c r="K110">
-        <v>43.34</v>
       </c>
       <c r="L110">
         <v>4</v>
@@ -10119,10 +10119,10 @@
         <v>0.21711721361884259</v>
       </c>
       <c r="J111">
+        <v>43.103000000000002</v>
+      </c>
+      <c r="K111">
         <v>-79.644000000000005</v>
-      </c>
-      <c r="K111">
-        <v>43.103000000000002</v>
       </c>
       <c r="L111">
         <v>4</v>
@@ -10163,10 +10163,10 @@
         <v>0.17520138630294679</v>
       </c>
       <c r="J112">
+        <v>43.52</v>
+      </c>
+      <c r="K112">
         <v>-80.754000000000005</v>
-      </c>
-      <c r="K112">
-        <v>43.52</v>
       </c>
       <c r="L112">
         <v>4</v>
@@ -10207,10 +10207,10 @@
         <v>0.51671519702843316</v>
       </c>
       <c r="J113">
+        <v>42.206000000000003</v>
+      </c>
+      <c r="K113">
         <v>-81.564999999999998</v>
-      </c>
-      <c r="K113">
-        <v>42.206000000000003</v>
       </c>
       <c r="L113">
         <v>4</v>
@@ -10251,10 +10251,10 @@
         <v>0.39177929318292309</v>
       </c>
       <c r="J114">
+        <v>42.003</v>
+      </c>
+      <c r="K114">
         <v>-82.123000000000005</v>
-      </c>
-      <c r="K114">
-        <v>42.003</v>
       </c>
       <c r="L114">
         <v>4</v>
@@ -10295,10 +10295,10 @@
         <v>0.53475492017704662</v>
       </c>
       <c r="J115">
+        <v>42.911000000000001</v>
+      </c>
+      <c r="K115">
         <v>-82.763000000000005</v>
-      </c>
-      <c r="K115">
-        <v>42.911000000000001</v>
       </c>
       <c r="L115">
         <v>5</v>
@@ -10339,10 +10339,10 @@
         <v>0.58377423754855939</v>
       </c>
       <c r="J116">
+        <v>42.628999999999998</v>
+      </c>
+      <c r="K116">
         <v>-82.77</v>
-      </c>
-      <c r="K116">
-        <v>42.628999999999998</v>
       </c>
       <c r="L116">
         <v>5</v>
@@ -10383,10 +10383,10 @@
         <v>0.46862090416047752</v>
       </c>
       <c r="J117">
+        <v>42.323999999999998</v>
+      </c>
+      <c r="K117">
         <v>-82.921000000000006</v>
-      </c>
-      <c r="K117">
-        <v>42.323999999999998</v>
       </c>
       <c r="L117">
         <v>5</v>
@@ -10427,10 +10427,10 @@
         <v>0.53869761895730184</v>
       </c>
       <c r="J118">
+        <v>42.573</v>
+      </c>
+      <c r="K118">
         <v>-83.488</v>
-      </c>
-      <c r="K118">
-        <v>42.573</v>
       </c>
       <c r="L118">
         <v>5</v>
@@ -10471,10 +10471,10 @@
         <v>0.55482446124572948</v>
       </c>
       <c r="J119">
+        <v>42.127000000000002</v>
+      </c>
+      <c r="K119">
         <v>-83.495000000000005</v>
-      </c>
-      <c r="K119">
-        <v>42.127000000000002</v>
       </c>
       <c r="L119">
         <v>5</v>
@@ -10515,10 +10515,10 @@
         <v>0.52780152843710126</v>
       </c>
       <c r="J120">
+        <v>43.109000000000002</v>
+      </c>
+      <c r="K120">
         <v>-83.632999999999996</v>
-      </c>
-      <c r="K120">
-        <v>43.109000000000002</v>
       </c>
       <c r="L120">
         <v>5</v>
@@ -10559,10 +10559,10 @@
         <v>0.46547233018987971</v>
       </c>
       <c r="J121">
+        <v>43.198999999999998</v>
+      </c>
+      <c r="K121">
         <v>-85.754999999999995</v>
-      </c>
-      <c r="K121">
-        <v>43.198999999999998</v>
       </c>
       <c r="L121">
         <v>5</v>
@@ -10603,10 +10603,10 @@
         <v>0.57408416954148689</v>
       </c>
       <c r="J122">
+        <v>42.494</v>
+      </c>
+      <c r="K122">
         <v>-83.144999999999996</v>
-      </c>
-      <c r="K122">
-        <v>42.494</v>
       </c>
       <c r="L122">
         <v>5</v>
@@ -10647,10 +10647,10 @@
         <v>0.56411135819559122</v>
       </c>
       <c r="J123">
+        <v>42.319000000000003</v>
+      </c>
+      <c r="K123">
         <v>-83.200999999999993</v>
-      </c>
-      <c r="K123">
-        <v>42.319000000000003</v>
       </c>
       <c r="L123">
         <v>5</v>
@@ -10691,10 +10691,10 @@
         <v>0.65645847424786319</v>
       </c>
       <c r="J124">
+        <v>41.619</v>
+      </c>
+      <c r="K124">
         <v>-83.501999999999995</v>
-      </c>
-      <c r="K124">
-        <v>41.619</v>
       </c>
       <c r="L124">
         <v>5</v>
@@ -10735,10 +10735,10 @@
         <v>4.161039469679681E-2</v>
       </c>
       <c r="J125">
+        <v>40.627000000000002</v>
+      </c>
+      <c r="K125">
         <v>-74.709000000000003</v>
-      </c>
-      <c r="K125">
-        <v>40.627000000000002</v>
       </c>
       <c r="L125">
         <v>6</v>
@@ -10779,10 +10779,10 @@
         <v>-5.9620447248126297E-2</v>
       </c>
       <c r="J126">
+        <v>40.485999999999997</v>
+      </c>
+      <c r="K126">
         <v>-74.301000000000002</v>
-      </c>
-      <c r="K126">
-        <v>40.485999999999997</v>
       </c>
       <c r="L126">
         <v>6</v>
@@ -10823,10 +10823,10 @@
         <v>-9.41517864988341E-2</v>
       </c>
       <c r="J127">
+        <v>40.892000000000003</v>
+      </c>
+      <c r="K127">
         <v>-74.046999999999997</v>
-      </c>
-      <c r="K127">
-        <v>40.892000000000003</v>
       </c>
       <c r="L127">
         <v>6</v>
@@ -10867,10 +10867,10 @@
         <v>0.1143539725906685</v>
       </c>
       <c r="J128">
+        <v>40.779000000000003</v>
+      </c>
+      <c r="K128">
         <v>-75.706000000000003</v>
-      </c>
-      <c r="K128">
-        <v>40.779000000000003</v>
       </c>
       <c r="L128">
         <v>6</v>
@@ -10911,10 +10911,10 @@
         <v>4.7781878931848758E-2</v>
       </c>
       <c r="J129">
+        <v>40.136000000000003</v>
+      </c>
+      <c r="K129">
         <v>-75.201999999999998</v>
-      </c>
-      <c r="K129">
-        <v>40.136000000000003</v>
       </c>
       <c r="L129">
         <v>6</v>
@@ -10955,10 +10955,10 @@
         <v>0.15603418045754511</v>
       </c>
       <c r="J130">
+        <v>39.837000000000003</v>
+      </c>
+      <c r="K130">
         <v>-75.680000000000007</v>
-      </c>
-      <c r="K130">
-        <v>39.837000000000003</v>
       </c>
       <c r="L130">
         <v>6</v>
@@ -10999,10 +10999,10 @@
         <v>0.2128708275487404</v>
       </c>
       <c r="J131">
+        <v>39.909999999999997</v>
+      </c>
+      <c r="K131">
         <v>-76.078999999999994</v>
-      </c>
-      <c r="K131">
-        <v>39.909999999999997</v>
       </c>
       <c r="L131">
         <v>6</v>
@@ -11043,10 +11043,10 @@
         <v>0.23409228592373951</v>
       </c>
       <c r="J132">
+        <v>39.960999999999999</v>
+      </c>
+      <c r="K132">
         <v>-76.518000000000001</v>
-      </c>
-      <c r="K132">
-        <v>39.960999999999999</v>
       </c>
       <c r="L132">
         <v>6</v>
@@ -11087,10 +11087,10 @@
         <v>0.34132531516627113</v>
       </c>
       <c r="J133">
+        <v>40.637999999999998</v>
+      </c>
+      <c r="K133">
         <v>-77.388999999999996</v>
-      </c>
-      <c r="K133">
-        <v>40.637999999999998</v>
       </c>
       <c r="L133">
         <v>6</v>
@@ -11131,10 +11131,10 @@
         <v>0.59948569147501229</v>
       </c>
       <c r="J134">
+        <v>40.435000000000002</v>
+      </c>
+      <c r="K134">
         <v>-79.096000000000004</v>
-      </c>
-      <c r="K134">
-        <v>40.435000000000002</v>
       </c>
       <c r="L134">
         <v>6</v>
@@ -11175,10 +11175,10 @@
         <v>0.44639239080707771</v>
       </c>
       <c r="J135">
+        <v>41.072000000000003</v>
+      </c>
+      <c r="K135">
         <v>-78.825999999999993</v>
-      </c>
-      <c r="K135">
-        <v>41.072000000000003</v>
       </c>
       <c r="L135">
         <v>6</v>
@@ -11219,10 +11219,10 @@
         <v>0.61097519394089106</v>
       </c>
       <c r="J136">
+        <v>40.784999999999997</v>
+      </c>
+      <c r="K136">
         <v>-79.408000000000001</v>
-      </c>
-      <c r="K136">
-        <v>40.784999999999997</v>
       </c>
       <c r="L136">
         <v>6</v>
@@ -11263,10 +11263,10 @@
         <v>0.34413704059123401</v>
       </c>
       <c r="J137">
+        <v>41.664999999999999</v>
+      </c>
+      <c r="K137">
         <v>-80.295000000000002</v>
-      </c>
-      <c r="K137">
-        <v>41.664999999999999</v>
       </c>
       <c r="L137">
         <v>6</v>
@@ -11307,10 +11307,10 @@
         <v>0.3547294438215875</v>
       </c>
       <c r="J138">
+        <v>42.133000000000003</v>
+      </c>
+      <c r="K138">
         <v>-79.953000000000003</v>
-      </c>
-      <c r="K138">
-        <v>42.133000000000003</v>
       </c>
       <c r="L138">
         <v>6</v>
@@ -11351,10 +11351,10 @@
         <v>0.2365392375350355</v>
       </c>
       <c r="J139">
+        <v>41.715000000000003</v>
+      </c>
+      <c r="K139">
         <v>-76.266000000000005</v>
-      </c>
-      <c r="K139">
-        <v>41.715000000000003</v>
       </c>
       <c r="L139">
         <v>6</v>
@@ -11395,10 +11395,10 @@
         <v>0.51274282765089418</v>
       </c>
       <c r="J140">
+        <v>38.94</v>
+      </c>
+      <c r="K140">
         <v>-82.212000000000003</v>
-      </c>
-      <c r="K140">
-        <v>38.94</v>
       </c>
       <c r="L140">
         <v>6</v>
@@ -11439,10 +11439,10 @@
         <v>0.52726745768599093</v>
       </c>
       <c r="J141">
+        <v>41.951999999999998</v>
+      </c>
+      <c r="K141">
         <v>-79.283000000000001</v>
-      </c>
-      <c r="K141">
-        <v>41.951999999999998</v>
       </c>
       <c r="L141">
         <v>6</v>

--- a/Data/NPCC140/npcc.xlsx
+++ b/Data/NPCC140/npcc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EERL\NY-Simple-Net\NY-Simple-Net-main\Data\NPCC140\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06030A3F-7881-4DFF-A30A-12E422C2A68B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBD2B21-E945-4D6C-AE05-3ED637BE93B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Toggler" sheetId="11" r:id="rId1"/>
@@ -5242,7 +5242,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U5" sqref="U5"/>
+      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5323,10 +5323,10 @@
         <v>8.4533276991093351E-2</v>
       </c>
       <c r="J2">
+        <v>-72.057000000000002</v>
+      </c>
+      <c r="K2">
         <v>41.005000000000003</v>
-      </c>
-      <c r="K2">
-        <v>-72.057000000000002</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -5367,10 +5367,10 @@
         <v>7.0801026436401973E-2</v>
       </c>
       <c r="J3">
+        <v>-72.296999999999997</v>
+      </c>
+      <c r="K3">
         <v>41.298000000000002</v>
-      </c>
-      <c r="K3">
-        <v>-72.296999999999997</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -5411,10 +5411,10 @@
         <v>6.9933597798160788E-2</v>
       </c>
       <c r="J4">
+        <v>-72.010000000000005</v>
+      </c>
+      <c r="K4">
         <v>41.478000000000002</v>
-      </c>
-      <c r="K4">
-        <v>-72.010000000000005</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -5455,10 +5455,10 @@
         <v>7.1567225978027491E-2</v>
       </c>
       <c r="J5">
+        <v>-71.798000000000002</v>
+      </c>
+      <c r="K5">
         <v>41.274999999999999</v>
-      </c>
-      <c r="K5">
-        <v>-71.798000000000002</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -5499,10 +5499,10 @@
         <v>4.1062361311670591E-2</v>
       </c>
       <c r="J6">
+        <v>-72.078000000000003</v>
+      </c>
+      <c r="K6">
         <v>41.76</v>
-      </c>
-      <c r="K6">
-        <v>-72.078000000000003</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -5543,10 +5543,10 @@
         <v>3.2468360074850523E-2</v>
       </c>
       <c r="J7">
+        <v>-71.616</v>
+      </c>
+      <c r="K7">
         <v>41.969000000000001</v>
-      </c>
-      <c r="K7">
-        <v>-71.616</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -5587,10 +5587,10 @@
         <v>5.6991981394622838E-2</v>
       </c>
       <c r="J8">
+        <v>-71.248999999999995</v>
+      </c>
+      <c r="K8">
         <v>42.206000000000003</v>
-      </c>
-      <c r="K8">
-        <v>-71.248999999999995</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -5631,10 +5631,10 @@
         <v>3.4862951808586742E-2</v>
       </c>
       <c r="J9">
+        <v>-71.671999999999997</v>
+      </c>
+      <c r="K9">
         <v>42.189</v>
-      </c>
-      <c r="K9">
-        <v>-71.671999999999997</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -5675,10 +5675,10 @@
         <v>1.8722146886143171E-2</v>
       </c>
       <c r="J10">
+        <v>-72.039000000000001</v>
+      </c>
+      <c r="K10">
         <v>42.088000000000001</v>
-      </c>
-      <c r="K10">
-        <v>-72.039000000000001</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -5719,10 +5719,10 @@
         <v>0.13993351810789739</v>
       </c>
       <c r="J11">
+        <v>-71.088999999999999</v>
+      </c>
+      <c r="K11">
         <v>41.648000000000003</v>
-      </c>
-      <c r="K11">
-        <v>-71.088999999999999</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -5763,10 +5763,10 @@
         <v>0.1170679595775196</v>
       </c>
       <c r="J12">
+        <v>-71.454999999999998</v>
+      </c>
+      <c r="K12">
         <v>41.506999999999998</v>
-      </c>
-      <c r="K12">
-        <v>-71.454999999999998</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -5807,10 +5807,10 @@
         <v>0.10372666277527499</v>
       </c>
       <c r="J13">
+        <v>-71.129000000000005</v>
+      </c>
+      <c r="K13">
         <v>41.975000000000001</v>
-      </c>
-      <c r="K13">
-        <v>-71.129000000000005</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -5851,10 +5851,10 @@
         <v>0.18629120837011881</v>
       </c>
       <c r="J14">
+        <v>-70.489999999999995</v>
+      </c>
+      <c r="K14">
         <v>41.71</v>
-      </c>
-      <c r="K14">
-        <v>-70.489999999999995</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -5895,10 +5895,10 @@
         <v>0.181280368087643</v>
       </c>
       <c r="J15">
+        <v>-70.162999999999997</v>
+      </c>
+      <c r="K15">
         <v>41.720999999999997</v>
-      </c>
-      <c r="K15">
-        <v>-70.162999999999997</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -5939,10 +5939,10 @@
         <v>6.0030599622344957E-2</v>
       </c>
       <c r="J16">
+        <v>-70.722999999999999</v>
+      </c>
+      <c r="K16">
         <v>42.228999999999999</v>
-      </c>
-      <c r="K16">
-        <v>-70.722999999999999</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -5983,10 +5983,10 @@
         <v>7.8038906844422468E-2</v>
       </c>
       <c r="J17">
+        <v>-72.478999999999999</v>
+      </c>
+      <c r="K17">
         <v>42.81</v>
-      </c>
-      <c r="K17">
-        <v>-72.478999999999999</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -6027,10 +6027,10 @@
         <v>5.7175240966082237E-2</v>
       </c>
       <c r="J18">
+        <v>-71.441999999999993</v>
+      </c>
+      <c r="K18">
         <v>42.826000000000001</v>
-      </c>
-      <c r="K18">
-        <v>-71.441999999999993</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -6071,10 +6071,10 @@
         <v>2.6293385181294569E-2</v>
       </c>
       <c r="J19">
+        <v>-71.298000000000002</v>
+      </c>
+      <c r="K19">
         <v>42.527999999999999</v>
-      </c>
-      <c r="K19">
-        <v>-71.298000000000002</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -6115,10 +6115,10 @@
         <v>0.11290360398226119</v>
       </c>
       <c r="J20">
+        <v>-70.588999999999999</v>
+      </c>
+      <c r="K20">
         <v>43.113999999999997</v>
-      </c>
-      <c r="K20">
-        <v>-70.588999999999999</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -6159,10 +6159,10 @@
         <v>0.15965748398468529</v>
       </c>
       <c r="J21">
+        <v>-69.832999999999998</v>
+      </c>
+      <c r="K21">
         <v>43.863999999999997</v>
-      </c>
-      <c r="K21">
-        <v>-69.832999999999998</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -6203,10 +6203,10 @@
         <v>0.2069646333599916</v>
       </c>
       <c r="J22">
+        <v>-72.403999999999996</v>
+      </c>
+      <c r="K22">
         <v>41.005000000000003</v>
-      </c>
-      <c r="K22">
-        <v>-72.403999999999996</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -6247,10 +6247,10 @@
         <v>0.22089236079090641</v>
       </c>
       <c r="J23">
+        <v>-70.881</v>
+      </c>
+      <c r="K23">
         <v>41.411000000000001</v>
-      </c>
-      <c r="K23">
-        <v>-70.881</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -6291,10 +6291,10 @@
         <v>0.2051215656698856</v>
       </c>
       <c r="J24">
+        <v>-71.343000000000004</v>
+      </c>
+      <c r="K24">
         <v>41.348999999999997</v>
-      </c>
-      <c r="K24">
-        <v>-71.343000000000004</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -6335,10 +6335,10 @@
         <v>0.27535710542864139</v>
       </c>
       <c r="J25">
+        <v>-70.537999999999997</v>
+      </c>
+      <c r="K25">
         <v>41.466999999999999</v>
-      </c>
-      <c r="K25">
-        <v>-70.537999999999997</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -6379,10 +6379,10 @@
         <v>0.31946855694354609</v>
       </c>
       <c r="J26">
+        <v>-70.186999999999998</v>
+      </c>
+      <c r="K26">
         <v>41.399000000000001</v>
-      </c>
-      <c r="K26">
-        <v>-70.186999999999998</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -6423,10 +6423,10 @@
         <v>0.27425056668287701</v>
       </c>
       <c r="J27">
+        <v>-69.506</v>
+      </c>
+      <c r="K27">
         <v>43.893000000000001</v>
-      </c>
-      <c r="K27">
-        <v>-69.506</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -6467,10 +6467,10 @@
         <v>0.19319049490325241</v>
       </c>
       <c r="J28">
+        <v>-72.91</v>
+      </c>
+      <c r="K28">
         <v>43.000999999999998</v>
-      </c>
-      <c r="K28">
-        <v>-72.91</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -6511,10 +6511,10 @@
         <v>5.6258943108785223E-2</v>
       </c>
       <c r="J29">
+        <v>-72.198999999999998</v>
+      </c>
+      <c r="K29">
         <v>42.465000000000003</v>
-      </c>
-      <c r="K29">
-        <v>-72.198999999999998</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -6555,10 +6555,10 @@
         <v>5.6258943108785223E-2</v>
       </c>
       <c r="J30">
+        <v>-72.725999999999999</v>
+      </c>
+      <c r="K30">
         <v>42.481999999999999</v>
-      </c>
-      <c r="K30">
-        <v>-72.725999999999999</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -6599,10 +6599,10 @@
         <v>1.258207857762712E-2</v>
       </c>
       <c r="J31">
+        <v>-72.581999999999994</v>
+      </c>
+      <c r="K31">
         <v>42.177999999999997</v>
-      </c>
-      <c r="K31">
-        <v>-72.581999999999994</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -6643,10 +6643,10 @@
         <v>6.9219758134095111E-3</v>
       </c>
       <c r="J32">
+        <v>-72.581000000000003</v>
+      </c>
+      <c r="K32">
         <v>41.838999999999999</v>
-      </c>
-      <c r="K32">
-        <v>-72.581000000000003</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -6687,10 +6687,10 @@
         <v>3.2201324699295382E-2</v>
       </c>
       <c r="J33">
+        <v>-72.772000000000006</v>
+      </c>
+      <c r="K33">
         <v>41.619</v>
-      </c>
-      <c r="K33">
-        <v>-72.772000000000006</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -6731,10 +6731,10 @@
         <v>4.4395940182979758E-2</v>
       </c>
       <c r="J34">
+        <v>-72.555999999999997</v>
+      </c>
+      <c r="K34">
         <v>41.371000000000002</v>
-      </c>
-      <c r="K34">
-        <v>-72.555999999999997</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -6775,10 +6775,10 @@
         <v>8.7022116504437263E-3</v>
       </c>
       <c r="J35">
+        <v>-72.986999999999995</v>
+      </c>
+      <c r="K35">
         <v>41.304000000000002</v>
-      </c>
-      <c r="K35">
-        <v>-72.986999999999995</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -6819,10 +6819,10 @@
         <v>1.296779634231787E-3</v>
       </c>
       <c r="J36">
+        <v>-73.186999999999998</v>
+      </c>
+      <c r="K36">
         <v>41.563000000000002</v>
-      </c>
-      <c r="K36">
-        <v>-73.186999999999998</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -6863,10 +6863,10 @@
         <v>0.17388715337619501</v>
       </c>
       <c r="J37">
+        <v>-72.643000000000001</v>
+      </c>
+      <c r="K37">
         <v>41.173999999999999</v>
-      </c>
-      <c r="K37">
-        <v>-72.643000000000001</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -6907,10 +6907,10 @@
         <v>8.0393356005362807E-2</v>
       </c>
       <c r="J38">
+        <v>-73.923000000000002</v>
+      </c>
+      <c r="K38">
         <v>42.494</v>
-      </c>
-      <c r="K38">
-        <v>-73.923000000000002</v>
       </c>
       <c r="L38">
         <v>2</v>
@@ -6951,10 +6951,10 @@
         <v>0.1217402059851085</v>
       </c>
       <c r="J39">
+        <v>-74.88</v>
+      </c>
+      <c r="K39">
         <v>42.335999999999999</v>
-      </c>
-      <c r="K39">
-        <v>-74.88</v>
       </c>
       <c r="L39">
         <v>2</v>
@@ -6995,10 +6995,10 @@
         <v>5.7140334381042351E-2</v>
       </c>
       <c r="J40">
+        <v>-74.001000000000005</v>
+      </c>
+      <c r="K40">
         <v>42.042000000000002</v>
-      </c>
-      <c r="K40">
-        <v>-74.001000000000005</v>
       </c>
       <c r="L40">
         <v>2</v>
@@ -7039,10 +7039,10 @@
         <v>1.0056587149991331E-2</v>
       </c>
       <c r="J41">
+        <v>-74.066000000000003</v>
+      </c>
+      <c r="K41">
         <v>42.646000000000001</v>
-      </c>
-      <c r="K41">
-        <v>-74.066000000000003</v>
       </c>
       <c r="L41">
         <v>2</v>
@@ -7083,10 +7083,10 @@
         <v>-5.8833303755476851E-2</v>
       </c>
       <c r="J42">
+        <v>-73.78</v>
+      </c>
+      <c r="K42">
         <v>43.085999999999999</v>
-      </c>
-      <c r="K42">
-        <v>-73.78</v>
       </c>
       <c r="L42">
         <v>2</v>
@@ -7127,10 +7127,10 @@
         <v>-4.4793875252434473E-2</v>
       </c>
       <c r="J43">
+        <v>-73.628</v>
+      </c>
+      <c r="K43">
         <v>42.701999999999998</v>
-      </c>
-      <c r="K43">
-        <v>-73.628</v>
       </c>
       <c r="L43">
         <v>2</v>
@@ -7171,10 +7171,10 @@
         <v>0.14561281949388691</v>
       </c>
       <c r="J44">
+        <v>-75.239999999999995</v>
+      </c>
+      <c r="K44">
         <v>42.893999999999998</v>
-      </c>
-      <c r="K44">
-        <v>-75.239999999999995</v>
       </c>
       <c r="L44">
         <v>2</v>
@@ -7215,10 +7215,10 @@
         <v>0.1146611505390195</v>
       </c>
       <c r="J45">
+        <v>-75.135999999999996</v>
+      </c>
+      <c r="K45">
         <v>43.012999999999998</v>
-      </c>
-      <c r="K45">
-        <v>-75.135999999999996</v>
       </c>
       <c r="L45">
         <v>2</v>
@@ -7259,10 +7259,10 @@
         <v>6.889163623472018E-2</v>
       </c>
       <c r="J46">
+        <v>-75.239999999999995</v>
+      </c>
+      <c r="K46">
         <v>43.131</v>
-      </c>
-      <c r="K46">
-        <v>-75.239999999999995</v>
       </c>
       <c r="L46">
         <v>2</v>
@@ -7303,10 +7303,10 @@
         <v>0.1079486142358493</v>
       </c>
       <c r="J47">
+        <v>-75.051000000000002</v>
+      </c>
+      <c r="K47">
         <v>44.427999999999997</v>
-      </c>
-      <c r="K47">
-        <v>-75.051000000000002</v>
       </c>
       <c r="L47">
         <v>2</v>
@@ -7347,10 +7347,10 @@
         <v>0.20384223932817369</v>
       </c>
       <c r="J48">
+        <v>-75.210999999999999</v>
+      </c>
+      <c r="K48">
         <v>44.654000000000003</v>
-      </c>
-      <c r="K48">
-        <v>-75.210999999999999</v>
       </c>
       <c r="L48">
         <v>2</v>
@@ -7391,10 +7391,10 @@
         <v>0.26202104461415271</v>
       </c>
       <c r="J49">
+        <v>-74.820999999999998</v>
+      </c>
+      <c r="K49">
         <v>44.845999999999997</v>
-      </c>
-      <c r="K49">
-        <v>-74.820999999999998</v>
       </c>
       <c r="L49">
         <v>2</v>
@@ -7435,10 +7435,10 @@
         <v>-1.948136511076071E-2</v>
       </c>
       <c r="J50">
+        <v>-74.134</v>
+      </c>
+      <c r="K50">
         <v>44.698999999999998</v>
-      </c>
-      <c r="K50">
-        <v>-74.134</v>
       </c>
       <c r="L50">
         <v>2</v>
@@ -7479,10 +7479,10 @@
         <v>0.23063478867553869</v>
       </c>
       <c r="J51">
+        <v>-76.332999999999998</v>
+      </c>
+      <c r="K51">
         <v>43.305999999999997</v>
-      </c>
-      <c r="K51">
-        <v>-76.332999999999998</v>
       </c>
       <c r="L51">
         <v>2</v>
@@ -7523,10 +7523,10 @@
         <v>0.14884691459783239</v>
       </c>
       <c r="J52">
+        <v>-76.260999999999996</v>
+      </c>
+      <c r="K52">
         <v>42.939</v>
-      </c>
-      <c r="K52">
-        <v>-76.260999999999996</v>
       </c>
       <c r="L52">
         <v>2</v>
@@ -7567,10 +7567,10 @@
         <v>0.33882076768965919</v>
       </c>
       <c r="J53">
+        <v>-77.481999999999999</v>
+      </c>
+      <c r="K53">
         <v>43.311999999999998</v>
-      </c>
-      <c r="K53">
-        <v>-77.481999999999999</v>
       </c>
       <c r="L53">
         <v>2</v>
@@ -7611,10 +7611,10 @@
         <v>0.314251767809335</v>
       </c>
       <c r="J54">
+        <v>-77.777000000000001</v>
+      </c>
+      <c r="K54">
         <v>42.889000000000003</v>
-      </c>
-      <c r="K54">
-        <v>-77.777000000000001</v>
       </c>
       <c r="L54">
         <v>2</v>
@@ -7655,10 +7655,10 @@
         <v>0.47005381947636482</v>
       </c>
       <c r="J55">
+        <v>-78.352000000000004</v>
+      </c>
+      <c r="K55">
         <v>43.125</v>
-      </c>
-      <c r="K55">
-        <v>-78.352000000000004</v>
       </c>
       <c r="L55">
         <v>2</v>
@@ -7699,10 +7699,10 @@
         <v>0.45744207030145378</v>
       </c>
       <c r="J56">
+        <v>-78.590999999999994</v>
+      </c>
+      <c r="K56">
         <v>42.996000000000002</v>
-      </c>
-      <c r="K56">
-        <v>-78.590999999999994</v>
       </c>
       <c r="L56">
         <v>2</v>
@@ -7743,10 +7743,10 @@
         <v>0.46948484214021469</v>
       </c>
       <c r="J57">
+        <v>-78.742999999999995</v>
+      </c>
+      <c r="K57">
         <v>43.311999999999998</v>
-      </c>
-      <c r="K57">
-        <v>-78.742999999999995</v>
       </c>
       <c r="L57">
         <v>2</v>
@@ -7787,10 +7787,10 @@
         <v>0.44895627947825728</v>
       </c>
       <c r="J58">
+        <v>-79.125</v>
+      </c>
+      <c r="K58">
         <v>42.911000000000001</v>
-      </c>
-      <c r="K58">
-        <v>-79.125</v>
       </c>
       <c r="L58">
         <v>2</v>
@@ -7831,10 +7831,10 @@
         <v>0.42914679246812182</v>
       </c>
       <c r="J59">
+        <v>-79.132999999999996</v>
+      </c>
+      <c r="K59">
         <v>42.713999999999999</v>
-      </c>
-      <c r="K59">
-        <v>-79.132999999999996</v>
       </c>
       <c r="L59">
         <v>2</v>
@@ -7875,10 +7875,10 @@
         <v>0.38721351185970598</v>
       </c>
       <c r="J60">
+        <v>-78.796999999999997</v>
+      </c>
+      <c r="K60">
         <v>42.561</v>
-      </c>
-      <c r="K60">
-        <v>-78.796999999999997</v>
       </c>
       <c r="L60">
         <v>2</v>
@@ -7919,10 +7919,10 @@
         <v>0.52740533869689854</v>
       </c>
       <c r="J61">
+        <v>-79.314999999999998</v>
+      </c>
+      <c r="K61">
         <v>42.33</v>
-      </c>
-      <c r="K61">
-        <v>-79.314999999999998</v>
       </c>
       <c r="L61">
         <v>2</v>
@@ -7963,10 +7963,10 @@
         <v>0.46647414918052449</v>
       </c>
       <c r="J62">
+        <v>-78.828000000000003</v>
+      </c>
+      <c r="K62">
         <v>42.234000000000002</v>
-      </c>
-      <c r="K62">
-        <v>-78.828000000000003</v>
       </c>
       <c r="L62">
         <v>2</v>
@@ -8007,10 +8007,10 @@
         <v>0.41823848464315722</v>
       </c>
       <c r="J63">
+        <v>-78.254999999999995</v>
+      </c>
+      <c r="K63">
         <v>42.707999999999998</v>
-      </c>
-      <c r="K63">
-        <v>-78.254999999999995</v>
       </c>
       <c r="L63">
         <v>2</v>
@@ -8051,10 +8051,10 @@
         <v>0.30799301711168342</v>
       </c>
       <c r="J64">
+        <v>-77.823999999999998</v>
+      </c>
+      <c r="K64">
         <v>42.42</v>
-      </c>
-      <c r="K64">
-        <v>-77.823999999999998</v>
       </c>
       <c r="L64">
         <v>2</v>
@@ -8095,10 +8095,10 @@
         <v>0.25390351826312713</v>
       </c>
       <c r="J65">
+        <v>-77.591999999999999</v>
+      </c>
+      <c r="K65">
         <v>42.408999999999999</v>
-      </c>
-      <c r="K65">
-        <v>-77.591999999999999</v>
       </c>
       <c r="L65">
         <v>2</v>
@@ -8139,10 +8139,10 @@
         <v>0.27499058628572259</v>
       </c>
       <c r="J66">
+        <v>-76.977999999999994</v>
+      </c>
+      <c r="K66">
         <v>42.628999999999998</v>
-      </c>
-      <c r="K66">
-        <v>-76.977999999999994</v>
       </c>
       <c r="L66">
         <v>2</v>
@@ -8183,10 +8183,10 @@
         <v>0.36431304674428838</v>
       </c>
       <c r="J67">
+        <v>-76.203000000000003</v>
+      </c>
+      <c r="K67">
         <v>41.862000000000002</v>
-      </c>
-      <c r="K67">
-        <v>-76.203000000000003</v>
       </c>
       <c r="L67">
         <v>2</v>
@@ -8227,10 +8227,10 @@
         <v>0.29114360851293009</v>
       </c>
       <c r="J68">
+        <v>-77.040999999999997</v>
+      </c>
+      <c r="K68">
         <v>41.951999999999998</v>
-      </c>
-      <c r="K68">
-        <v>-77.040999999999997</v>
       </c>
       <c r="L68">
         <v>2</v>
@@ -8271,10 +8271,10 @@
         <v>0.2224107972401414</v>
       </c>
       <c r="J69">
+        <v>-76.713999999999999</v>
+      </c>
+      <c r="K69">
         <v>42.15</v>
-      </c>
-      <c r="K69">
-        <v>-76.713999999999999</v>
       </c>
       <c r="L69">
         <v>2</v>
@@ -8315,10 +8315,10 @@
         <v>0.25020342024889908</v>
       </c>
       <c r="J70">
+        <v>-75.397000000000006</v>
+      </c>
+      <c r="K70">
         <v>42.009</v>
-      </c>
-      <c r="K70">
-        <v>-75.397000000000006</v>
       </c>
       <c r="L70">
         <v>2</v>
@@ -8359,10 +8359,10 @@
         <v>0.2367748569840547</v>
       </c>
       <c r="J71">
+        <v>-75.988</v>
+      </c>
+      <c r="K71">
         <v>42.014000000000003</v>
-      </c>
-      <c r="K71">
-        <v>-75.988</v>
       </c>
       <c r="L71">
         <v>2</v>
@@ -8403,10 +8403,10 @@
         <v>0.1939793837251538</v>
       </c>
       <c r="J72">
+        <v>-75.789000000000001</v>
+      </c>
+      <c r="K72">
         <v>42.33</v>
-      </c>
-      <c r="K72">
-        <v>-75.789000000000001</v>
       </c>
       <c r="L72">
         <v>2</v>
@@ -8447,10 +8447,10 @@
         <v>0.17659764970454231</v>
       </c>
       <c r="J73">
+        <v>-76.093000000000004</v>
+      </c>
+      <c r="K73">
         <v>42.634999999999998</v>
-      </c>
-      <c r="K73">
-        <v>-76.093000000000004</v>
       </c>
       <c r="L73">
         <v>2</v>
@@ -8491,10 +8491,10 @@
         <v>2.8581511830659139E-2</v>
       </c>
       <c r="J74">
+        <v>-73.641000000000005</v>
+      </c>
+      <c r="K74">
         <v>41.58</v>
-      </c>
-      <c r="K74">
-        <v>-73.641000000000005</v>
       </c>
       <c r="L74">
         <v>3</v>
@@ -8535,10 +8535,10 @@
         <v>5.1993358416911077E-3</v>
       </c>
       <c r="J75">
+        <v>-73.769000000000005</v>
+      </c>
+      <c r="K75">
         <v>41.304000000000002</v>
-      </c>
-      <c r="K75">
-        <v>-73.769000000000005</v>
       </c>
       <c r="L75">
         <v>3</v>
@@ -8579,10 +8579,10 @@
         <v>2.2045253781940371E-2</v>
       </c>
       <c r="J76">
+        <v>-74.861000000000004</v>
+      </c>
+      <c r="K76">
         <v>41.078000000000003</v>
-      </c>
-      <c r="K76">
-        <v>-74.861000000000004</v>
       </c>
       <c r="L76">
         <v>3</v>
@@ -8623,10 +8623,10 @@
         <v>1.391725545540278E-2</v>
       </c>
       <c r="J77">
+        <v>-74.311000000000007</v>
+      </c>
+      <c r="K77">
         <v>41.173999999999999</v>
-      </c>
-      <c r="K77">
-        <v>-74.311000000000007</v>
       </c>
       <c r="L77">
         <v>3</v>
@@ -8667,10 +8667,10 @@
         <v>9.5260070573850494E-3</v>
       </c>
       <c r="J78">
+        <v>-74.12</v>
+      </c>
+      <c r="K78">
         <v>41.36</v>
-      </c>
-      <c r="K78">
-        <v>-74.12</v>
       </c>
       <c r="L78">
         <v>3</v>
@@ -8711,10 +8711,10 @@
         <v>0</v>
       </c>
       <c r="J79">
+        <v>-73.424000000000007</v>
+      </c>
+      <c r="K79">
         <v>40.773000000000003</v>
-      </c>
-      <c r="K79">
-        <v>-73.424000000000007</v>
       </c>
       <c r="L79">
         <v>3</v>
@@ -8755,10 +8755,10 @@
         <v>0.14261957982671661</v>
       </c>
       <c r="J80">
+        <v>-73.263999999999996</v>
+      </c>
+      <c r="K80">
         <v>40.378999999999998</v>
-      </c>
-      <c r="K80">
-        <v>-73.263999999999996</v>
       </c>
       <c r="L80">
         <v>3</v>
@@ -8799,10 +8799,10 @@
         <v>1.1011282250832231E-2</v>
       </c>
       <c r="J81">
+        <v>-73.144999999999996</v>
+      </c>
+      <c r="K81">
         <v>40.851999999999997</v>
-      </c>
-      <c r="K81">
-        <v>-73.144999999999996</v>
       </c>
       <c r="L81">
         <v>3</v>
@@ -8843,10 +8843,10 @@
         <v>-5.7327084611005753E-2</v>
       </c>
       <c r="J82">
+        <v>-73.775000000000006</v>
+      </c>
+      <c r="K82">
         <v>40.491</v>
-      </c>
-      <c r="K82">
-        <v>-73.775000000000006</v>
       </c>
       <c r="L82">
         <v>3</v>
@@ -8887,10 +8887,10 @@
         <v>0.13208651779093089</v>
       </c>
       <c r="J83">
+        <v>-73.783000000000001</v>
+      </c>
+      <c r="K83">
         <v>40.744999999999997</v>
-      </c>
-      <c r="K83">
-        <v>-73.783000000000001</v>
       </c>
       <c r="L83">
         <v>3</v>
@@ -8931,10 +8931,10 @@
         <v>0.40114996593688068</v>
       </c>
       <c r="J84">
+        <v>-82.905000000000001</v>
+      </c>
+      <c r="K84">
         <v>42.11</v>
-      </c>
-      <c r="K84">
-        <v>-82.905000000000001</v>
       </c>
       <c r="L84">
         <v>4</v>
@@ -8975,10 +8975,10 @@
         <v>0.40993246273291623</v>
       </c>
       <c r="J85">
+        <v>-83.24</v>
+      </c>
+      <c r="K85">
         <v>41.975000000000001</v>
-      </c>
-      <c r="K85">
-        <v>-83.24</v>
       </c>
       <c r="L85">
         <v>4</v>
@@ -9019,10 +9019,10 @@
         <v>0.63614807774240523</v>
       </c>
       <c r="J86">
+        <v>-82.442999999999998</v>
+      </c>
+      <c r="K86">
         <v>42.543999999999997</v>
-      </c>
-      <c r="K86">
-        <v>-82.442999999999998</v>
       </c>
       <c r="L86">
         <v>4</v>
@@ -9063,10 +9063,10 @@
         <v>0.72828051829668194</v>
       </c>
       <c r="J87">
+        <v>-82.475999999999999</v>
+      </c>
+      <c r="K87">
         <v>42.81</v>
-      </c>
-      <c r="K87">
-        <v>-82.475999999999999</v>
       </c>
       <c r="L87">
         <v>4</v>
@@ -9107,10 +9107,10 @@
         <v>0.58733819988113178</v>
       </c>
       <c r="J88">
+        <v>-82.61</v>
+      </c>
+      <c r="K88">
         <v>42.436999999999998</v>
-      </c>
-      <c r="K88">
-        <v>-82.61</v>
       </c>
       <c r="L88">
         <v>4</v>
@@ -9151,10 +9151,10 @@
         <v>0.57345061502301287</v>
       </c>
       <c r="J89">
+        <v>-81.917000000000002</v>
+      </c>
+      <c r="K89">
         <v>42.81</v>
-      </c>
-      <c r="K89">
-        <v>-81.917000000000002</v>
       </c>
       <c r="L89">
         <v>4</v>
@@ -9195,10 +9195,10 @@
         <v>0.52798653333781265</v>
       </c>
       <c r="J90">
+        <v>-82.204999999999998</v>
+      </c>
+      <c r="K90">
         <v>42.911000000000001</v>
-      </c>
-      <c r="K90">
-        <v>-82.204999999999998</v>
       </c>
       <c r="L90">
         <v>4</v>
@@ -9239,10 +9239,10 @@
         <v>0.52537901143533305</v>
       </c>
       <c r="J91">
+        <v>-82.468000000000004</v>
+      </c>
+      <c r="K91">
         <v>43.255000000000003</v>
-      </c>
-      <c r="K91">
-        <v>-82.468000000000004</v>
       </c>
       <c r="L91">
         <v>4</v>
@@ -9283,10 +9283,10 @@
         <v>0.19571075034313221</v>
       </c>
       <c r="J92">
+        <v>-79.406000000000006</v>
+      </c>
+      <c r="K92">
         <v>43.875999999999998</v>
-      </c>
-      <c r="K92">
-        <v>-79.406000000000006</v>
       </c>
       <c r="L92">
         <v>4</v>
@@ -9327,10 +9327,10 @@
         <v>0.32606066552832857</v>
       </c>
       <c r="J93">
+        <v>-81.094999999999999</v>
+      </c>
+      <c r="K93">
         <v>46.481999999999999</v>
-      </c>
-      <c r="K93">
-        <v>-81.094999999999999</v>
       </c>
       <c r="L93">
         <v>4</v>
@@ -9371,10 +9371,10 @@
         <v>0.13169207337998021</v>
       </c>
       <c r="J94">
+        <v>-79.638999999999996</v>
+      </c>
+      <c r="K94">
         <v>44.732999999999997</v>
-      </c>
-      <c r="K94">
-        <v>-79.638999999999996</v>
       </c>
       <c r="L94">
         <v>4</v>
@@ -9415,10 +9415,10 @@
         <v>0.1357726531711429</v>
       </c>
       <c r="J95">
+        <v>-80.100999999999999</v>
+      </c>
+      <c r="K95">
         <v>44</v>
-      </c>
-      <c r="K95">
-        <v>-80.100999999999999</v>
       </c>
       <c r="L95">
         <v>4</v>
@@ -9459,10 +9459,10 @@
         <v>0.25540799207834619</v>
       </c>
       <c r="J96">
+        <v>-78.102000000000004</v>
+      </c>
+      <c r="K96">
         <v>46.087000000000003</v>
-      </c>
-      <c r="K96">
-        <v>-78.102000000000004</v>
       </c>
       <c r="L96">
         <v>4</v>
@@ -9503,10 +9503,10 @@
         <v>0.26530051827864998</v>
       </c>
       <c r="J97">
+        <v>-79.522999999999996</v>
+      </c>
+      <c r="K97">
         <v>46.194000000000003</v>
-      </c>
-      <c r="K97">
-        <v>-79.522999999999996</v>
       </c>
       <c r="L97">
         <v>4</v>
@@ -9547,10 +9547,10 @@
         <v>0.2451873439786674</v>
       </c>
       <c r="J98">
+        <v>-81.349000000000004</v>
+      </c>
+      <c r="K98">
         <v>46.198999999999998</v>
-      </c>
-      <c r="K98">
-        <v>-81.349000000000004</v>
       </c>
       <c r="L98">
         <v>4</v>
@@ -9591,10 +9591,10 @@
         <v>0.55801841377687911</v>
       </c>
       <c r="J99">
+        <v>-75.953000000000003</v>
+      </c>
+      <c r="K99">
         <v>44.637</v>
-      </c>
-      <c r="K99">
-        <v>-75.953000000000003</v>
       </c>
       <c r="L99">
         <v>4</v>
@@ -9635,10 +9635,10 @@
         <v>0.54668773627293188</v>
       </c>
       <c r="J100">
+        <v>-75.372</v>
+      </c>
+      <c r="K100">
         <v>44.975999999999999</v>
-      </c>
-      <c r="K100">
-        <v>-75.372</v>
       </c>
       <c r="L100">
         <v>4</v>
@@ -9679,10 +9679,10 @@
         <v>0.45933749786911959</v>
       </c>
       <c r="J101">
+        <v>-74.852999999999994</v>
+      </c>
+      <c r="K101">
         <v>45.066000000000003</v>
-      </c>
-      <c r="K101">
-        <v>-74.852999999999994</v>
       </c>
       <c r="L101">
         <v>4</v>
@@ -9723,10 +9723,10 @@
         <v>0.42495974759258742</v>
       </c>
       <c r="J102">
+        <v>-79.843000000000004</v>
+      </c>
+      <c r="K102">
         <v>42.917000000000002</v>
-      </c>
-      <c r="K102">
-        <v>-79.843000000000004</v>
       </c>
       <c r="L102">
         <v>4</v>
@@ -9767,10 +9767,10 @@
         <v>0.44548831025454461</v>
       </c>
       <c r="J103">
+        <v>-79.349000000000004</v>
+      </c>
+      <c r="K103">
         <v>43.265999999999998</v>
-      </c>
-      <c r="K103">
-        <v>-79.349000000000004</v>
       </c>
       <c r="L103">
         <v>4</v>
@@ -9811,10 +9811,10 @@
         <v>0.44185104409338838</v>
       </c>
       <c r="J104">
+        <v>-79.316999999999993</v>
+      </c>
+      <c r="K104">
         <v>43.069000000000003</v>
-      </c>
-      <c r="K104">
-        <v>-79.316999999999993</v>
       </c>
       <c r="L104">
         <v>4</v>
@@ -9855,10 +9855,10 @@
         <v>0.22992967565773301</v>
       </c>
       <c r="J105">
+        <v>-80.019000000000005</v>
+      </c>
+      <c r="K105">
         <v>43.148000000000003</v>
-      </c>
-      <c r="K105">
-        <v>-80.019000000000005</v>
       </c>
       <c r="L105">
         <v>4</v>
@@ -9899,10 +9899,10 @@
         <v>0.4210170488123321</v>
       </c>
       <c r="J106">
+        <v>-81.486000000000004</v>
+      </c>
+      <c r="K106">
         <v>42.731000000000002</v>
-      </c>
-      <c r="K106">
-        <v>-81.486000000000004</v>
       </c>
       <c r="L106">
         <v>4</v>
@@ -9943,10 +9943,10 @@
         <v>0.25457197936664089</v>
       </c>
       <c r="J107">
+        <v>-80.921000000000006</v>
+      </c>
+      <c r="K107">
         <v>43.137</v>
-      </c>
-      <c r="K107">
-        <v>-80.921000000000006</v>
       </c>
       <c r="L107">
         <v>4</v>
@@ -9987,10 +9987,10 @@
         <v>0.27808680037876049</v>
       </c>
       <c r="J108">
+        <v>-80.793000000000006</v>
+      </c>
+      <c r="K108">
         <v>42.99</v>
-      </c>
-      <c r="K108">
-        <v>-80.793000000000006</v>
       </c>
       <c r="L108">
         <v>4</v>
@@ -10031,10 +10031,10 @@
         <v>0.24287129206127089</v>
       </c>
       <c r="J109">
+        <v>-79.781000000000006</v>
+      </c>
+      <c r="K109">
         <v>43.706000000000003</v>
-      </c>
-      <c r="K109">
-        <v>-79.781000000000006</v>
       </c>
       <c r="L109">
         <v>4</v>
@@ -10075,10 +10075,10 @@
         <v>0.24244368639453229</v>
       </c>
       <c r="J110">
+        <v>-79.94</v>
+      </c>
+      <c r="K110">
         <v>43.34</v>
-      </c>
-      <c r="K110">
-        <v>-79.94</v>
       </c>
       <c r="L110">
         <v>4</v>
@@ -10119,10 +10119,10 @@
         <v>0.21711721361884259</v>
       </c>
       <c r="J111">
+        <v>-79.644000000000005</v>
+      </c>
+      <c r="K111">
         <v>43.103000000000002</v>
-      </c>
-      <c r="K111">
-        <v>-79.644000000000005</v>
       </c>
       <c r="L111">
         <v>4</v>
@@ -10163,10 +10163,10 @@
         <v>0.17520138630294679</v>
       </c>
       <c r="J112">
+        <v>-80.754000000000005</v>
+      </c>
+      <c r="K112">
         <v>43.52</v>
-      </c>
-      <c r="K112">
-        <v>-80.754000000000005</v>
       </c>
       <c r="L112">
         <v>4</v>
@@ -10207,10 +10207,10 @@
         <v>0.51671519702843316</v>
       </c>
       <c r="J113">
+        <v>-81.564999999999998</v>
+      </c>
+      <c r="K113">
         <v>42.206000000000003</v>
-      </c>
-      <c r="K113">
-        <v>-81.564999999999998</v>
       </c>
       <c r="L113">
         <v>4</v>
@@ -10251,10 +10251,10 @@
         <v>0.39177929318292309</v>
       </c>
       <c r="J114">
+        <v>-82.123000000000005</v>
+      </c>
+      <c r="K114">
         <v>42.003</v>
-      </c>
-      <c r="K114">
-        <v>-82.123000000000005</v>
       </c>
       <c r="L114">
         <v>4</v>
@@ -10295,10 +10295,10 @@
         <v>0.53475492017704662</v>
       </c>
       <c r="J115">
+        <v>-82.763000000000005</v>
+      </c>
+      <c r="K115">
         <v>42.911000000000001</v>
-      </c>
-      <c r="K115">
-        <v>-82.763000000000005</v>
       </c>
       <c r="L115">
         <v>5</v>
@@ -10339,10 +10339,10 @@
         <v>0.58377423754855939</v>
       </c>
       <c r="J116">
+        <v>-82.77</v>
+      </c>
+      <c r="K116">
         <v>42.628999999999998</v>
-      </c>
-      <c r="K116">
-        <v>-82.77</v>
       </c>
       <c r="L116">
         <v>5</v>
@@ -10383,10 +10383,10 @@
         <v>0.46862090416047752</v>
       </c>
       <c r="J117">
+        <v>-82.921000000000006</v>
+      </c>
+      <c r="K117">
         <v>42.323999999999998</v>
-      </c>
-      <c r="K117">
-        <v>-82.921000000000006</v>
       </c>
       <c r="L117">
         <v>5</v>
@@ -10427,10 +10427,10 @@
         <v>0.53869761895730184</v>
       </c>
       <c r="J118">
+        <v>-83.488</v>
+      </c>
+      <c r="K118">
         <v>42.573</v>
-      </c>
-      <c r="K118">
-        <v>-83.488</v>
       </c>
       <c r="L118">
         <v>5</v>
@@ -10471,10 +10471,10 @@
         <v>0.55482446124572948</v>
       </c>
       <c r="J119">
+        <v>-83.495000000000005</v>
+      </c>
+      <c r="K119">
         <v>42.127000000000002</v>
-      </c>
-      <c r="K119">
-        <v>-83.495000000000005</v>
       </c>
       <c r="L119">
         <v>5</v>
@@ -10515,10 +10515,10 @@
         <v>0.52780152843710126</v>
       </c>
       <c r="J120">
+        <v>-83.632999999999996</v>
+      </c>
+      <c r="K120">
         <v>43.109000000000002</v>
-      </c>
-      <c r="K120">
-        <v>-83.632999999999996</v>
       </c>
       <c r="L120">
         <v>5</v>
@@ -10559,10 +10559,10 @@
         <v>0.46547233018987971</v>
       </c>
       <c r="J121">
+        <v>-85.754999999999995</v>
+      </c>
+      <c r="K121">
         <v>43.198999999999998</v>
-      </c>
-      <c r="K121">
-        <v>-85.754999999999995</v>
       </c>
       <c r="L121">
         <v>5</v>
@@ -10603,10 +10603,10 @@
         <v>0.57408416954148689</v>
       </c>
       <c r="J122">
+        <v>-83.144999999999996</v>
+      </c>
+      <c r="K122">
         <v>42.494</v>
-      </c>
-      <c r="K122">
-        <v>-83.144999999999996</v>
       </c>
       <c r="L122">
         <v>5</v>
@@ -10647,10 +10647,10 @@
         <v>0.56411135819559122</v>
       </c>
       <c r="J123">
+        <v>-83.200999999999993</v>
+      </c>
+      <c r="K123">
         <v>42.319000000000003</v>
-      </c>
-      <c r="K123">
-        <v>-83.200999999999993</v>
       </c>
       <c r="L123">
         <v>5</v>
@@ -10691,10 +10691,10 @@
         <v>0.65645847424786319</v>
       </c>
       <c r="J124">
+        <v>-83.501999999999995</v>
+      </c>
+      <c r="K124">
         <v>41.619</v>
-      </c>
-      <c r="K124">
-        <v>-83.501999999999995</v>
       </c>
       <c r="L124">
         <v>5</v>
@@ -10735,10 +10735,10 @@
         <v>4.161039469679681E-2</v>
       </c>
       <c r="J125">
+        <v>-74.709000000000003</v>
+      </c>
+      <c r="K125">
         <v>40.627000000000002</v>
-      </c>
-      <c r="K125">
-        <v>-74.709000000000003</v>
       </c>
       <c r="L125">
         <v>6</v>
@@ -10779,10 +10779,10 @@
         <v>-5.9620447248126297E-2</v>
       </c>
       <c r="J126">
+        <v>-74.301000000000002</v>
+      </c>
+      <c r="K126">
         <v>40.485999999999997</v>
-      </c>
-      <c r="K126">
-        <v>-74.301000000000002</v>
       </c>
       <c r="L126">
         <v>6</v>
@@ -10823,10 +10823,10 @@
         <v>-9.41517864988341E-2</v>
       </c>
       <c r="J127">
+        <v>-74.046999999999997</v>
+      </c>
+      <c r="K127">
         <v>40.892000000000003</v>
-      </c>
-      <c r="K127">
-        <v>-74.046999999999997</v>
       </c>
       <c r="L127">
         <v>6</v>
@@ -10867,10 +10867,10 @@
         <v>0.1143539725906685</v>
       </c>
       <c r="J128">
+        <v>-75.706000000000003</v>
+      </c>
+      <c r="K128">
         <v>40.779000000000003</v>
-      </c>
-      <c r="K128">
-        <v>-75.706000000000003</v>
       </c>
       <c r="L128">
         <v>6</v>
@@ -10911,10 +10911,10 @@
         <v>4.7781878931848758E-2</v>
       </c>
       <c r="J129">
+        <v>-75.201999999999998</v>
+      </c>
+      <c r="K129">
         <v>40.136000000000003</v>
-      </c>
-      <c r="K129">
-        <v>-75.201999999999998</v>
       </c>
       <c r="L129">
         <v>6</v>
@@ -10955,10 +10955,10 @@
         <v>0.15603418045754511</v>
       </c>
       <c r="J130">
+        <v>-75.680000000000007</v>
+      </c>
+      <c r="K130">
         <v>39.837000000000003</v>
-      </c>
-      <c r="K130">
-        <v>-75.680000000000007</v>
       </c>
       <c r="L130">
         <v>6</v>
@@ -10999,10 +10999,10 @@
         <v>0.2128708275487404</v>
       </c>
       <c r="J131">
+        <v>-76.078999999999994</v>
+      </c>
+      <c r="K131">
         <v>39.909999999999997</v>
-      </c>
-      <c r="K131">
-        <v>-76.078999999999994</v>
       </c>
       <c r="L131">
         <v>6</v>
@@ -11043,10 +11043,10 @@
         <v>0.23409228592373951</v>
       </c>
       <c r="J132">
+        <v>-76.518000000000001</v>
+      </c>
+      <c r="K132">
         <v>39.960999999999999</v>
-      </c>
-      <c r="K132">
-        <v>-76.518000000000001</v>
       </c>
       <c r="L132">
         <v>6</v>
@@ -11087,10 +11087,10 @@
         <v>0.34132531516627113</v>
       </c>
       <c r="J133">
+        <v>-77.388999999999996</v>
+      </c>
+      <c r="K133">
         <v>40.637999999999998</v>
-      </c>
-      <c r="K133">
-        <v>-77.388999999999996</v>
       </c>
       <c r="L133">
         <v>6</v>
@@ -11131,10 +11131,10 @@
         <v>0.59948569147501229</v>
       </c>
       <c r="J134">
+        <v>-79.096000000000004</v>
+      </c>
+      <c r="K134">
         <v>40.435000000000002</v>
-      </c>
-      <c r="K134">
-        <v>-79.096000000000004</v>
       </c>
       <c r="L134">
         <v>6</v>
@@ -11175,10 +11175,10 @@
         <v>0.44639239080707771</v>
       </c>
       <c r="J135">
+        <v>-78.825999999999993</v>
+      </c>
+      <c r="K135">
         <v>41.072000000000003</v>
-      </c>
-      <c r="K135">
-        <v>-78.825999999999993</v>
       </c>
       <c r="L135">
         <v>6</v>
@@ -11219,10 +11219,10 @@
         <v>0.61097519394089106</v>
       </c>
       <c r="J136">
+        <v>-79.408000000000001</v>
+      </c>
+      <c r="K136">
         <v>40.784999999999997</v>
-      </c>
-      <c r="K136">
-        <v>-79.408000000000001</v>
       </c>
       <c r="L136">
         <v>6</v>
@@ -11263,10 +11263,10 @@
         <v>0.34413704059123401</v>
       </c>
       <c r="J137">
+        <v>-80.295000000000002</v>
+      </c>
+      <c r="K137">
         <v>41.664999999999999</v>
-      </c>
-      <c r="K137">
-        <v>-80.295000000000002</v>
       </c>
       <c r="L137">
         <v>6</v>
@@ -11307,10 +11307,10 @@
         <v>0.3547294438215875</v>
       </c>
       <c r="J138">
+        <v>-79.953000000000003</v>
+      </c>
+      <c r="K138">
         <v>42.133000000000003</v>
-      </c>
-      <c r="K138">
-        <v>-79.953000000000003</v>
       </c>
       <c r="L138">
         <v>6</v>
@@ -11351,10 +11351,10 @@
         <v>0.2365392375350355</v>
       </c>
       <c r="J139">
+        <v>-76.266000000000005</v>
+      </c>
+      <c r="K139">
         <v>41.715000000000003</v>
-      </c>
-      <c r="K139">
-        <v>-76.266000000000005</v>
       </c>
       <c r="L139">
         <v>6</v>
@@ -11395,10 +11395,10 @@
         <v>0.51274282765089418</v>
       </c>
       <c r="J140">
+        <v>-82.212000000000003</v>
+      </c>
+      <c r="K140">
         <v>38.94</v>
-      </c>
-      <c r="K140">
-        <v>-82.212000000000003</v>
       </c>
       <c r="L140">
         <v>6</v>
@@ -11439,10 +11439,10 @@
         <v>0.52726745768599093</v>
       </c>
       <c r="J141">
+        <v>-79.283000000000001</v>
+      </c>
+      <c r="K141">
         <v>41.951999999999998</v>
-      </c>
-      <c r="K141">
-        <v>-79.283000000000001</v>
       </c>
       <c r="L141">
         <v>6</v>
@@ -34069,7 +34069,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3:D4"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/NPCC140/npcc.xlsx
+++ b/Data/NPCC140/npcc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EERL\NY-Simple-Net\NY-Simple-Net-main\Data\NPCC140\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBD2B21-E945-4D6C-AE05-3ED637BE93B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEE5AD0-94F9-4E43-BAED-D01A85123B33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Toggler" sheetId="11" r:id="rId1"/>
@@ -1943,7 +1943,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1955,6 +1955,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1995,11 +2002,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5240,7 +5248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
     </sheetView>
@@ -17580,9 +17588,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X234"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K185" sqref="K185"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F108" sqref="F108:F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20469,10 +20477,10 @@
       <c r="D45" t="s">
         <v>288</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="2">
         <v>43</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="2">
         <v>50</v>
       </c>
       <c r="G45">
@@ -20534,10 +20542,10 @@
       <c r="D46" t="s">
         <v>289</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="2">
         <v>43</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="2">
         <v>50</v>
       </c>
       <c r="G46">
@@ -23329,10 +23337,10 @@
       <c r="D89" t="s">
         <v>332</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="2">
         <v>73</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="2">
         <v>74</v>
       </c>
       <c r="G89">
@@ -23394,10 +23402,10 @@
       <c r="D90" t="s">
         <v>333</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="2">
         <v>73</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="2">
         <v>74</v>
       </c>
       <c r="G90">
@@ -23524,10 +23532,10 @@
       <c r="D92" t="s">
         <v>335</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="2">
         <v>74</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="2">
         <v>78</v>
       </c>
       <c r="G92">
@@ -23589,10 +23597,10 @@
       <c r="D93" t="s">
         <v>336</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="2">
         <v>74</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="2">
         <v>78</v>
       </c>
       <c r="G93">
@@ -24304,10 +24312,10 @@
       <c r="D104" t="s">
         <v>347</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="2">
         <v>85</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="2">
         <v>88</v>
       </c>
       <c r="G104">
@@ -24369,10 +24377,10 @@
       <c r="D105" t="s">
         <v>348</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="2">
         <v>85</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="2">
         <v>88</v>
       </c>
       <c r="G105">
@@ -24434,10 +24442,10 @@
       <c r="D106" t="s">
         <v>349</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="2">
         <v>85</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="2">
         <v>105</v>
       </c>
       <c r="G106">
@@ -24499,10 +24507,10 @@
       <c r="D107" t="s">
         <v>350</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="2">
         <v>85</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="2">
         <v>105</v>
       </c>
       <c r="G107">
@@ -24564,10 +24572,10 @@
       <c r="D108" t="s">
         <v>351</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="2">
         <v>85</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="2">
         <v>112</v>
       </c>
       <c r="G108">
@@ -24629,10 +24637,10 @@
       <c r="D109" t="s">
         <v>352</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="2">
         <v>85</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="2">
         <v>112</v>
       </c>
       <c r="G109">
@@ -24824,10 +24832,10 @@
       <c r="D112" t="s">
         <v>355</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="2">
         <v>88</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="2">
         <v>105</v>
       </c>
       <c r="G112">
@@ -24889,10 +24897,10 @@
       <c r="D113" t="s">
         <v>356</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="2">
         <v>88</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="2">
         <v>105</v>
       </c>
       <c r="G113">
@@ -32809,6 +32817,7 @@
   </sheetData>
   <autoFilter ref="A1:X234" xr:uid="{8C945100-2036-4D5F-9A61-AFE09911C636}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
